--- a/Client/ExcelTemplates/ExportColumnNames.xlsx
+++ b/Client/ExcelTemplates/ExportColumnNames.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -98,13 +98,31 @@
   </si>
   <si>
     <t>&amp;=Depreciation.Value</t>
+  </si>
+  <si>
+    <t>Anschaffungsdatum</t>
+  </si>
+  <si>
+    <t>&amp;=AcquisitionDate</t>
+  </si>
+  <si>
+    <t>Verantwortlicher</t>
+  </si>
+  <si>
+    <t>&amp;=Room.Responsible</t>
+  </si>
+  <si>
+    <t>02.07.2013</t>
+  </si>
+  <si>
+    <t>m.gaiffi@bls.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +134,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,15 +164,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,13 +492,14 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="7" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -492,16 +522,22 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -524,16 +560,22 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -544,7 +586,10 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -552,18 +597,27 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>